--- a/Tool/src/database/Structure.xlsx
+++ b/Tool/src/database/Structure.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>表名称</t>
   </si>
@@ -22,6 +22,12 @@
     <t>表中文名称</t>
   </si>
   <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>唯一键</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -38,6 +44,9 @@
   </si>
   <si>
     <t>缺省值</t>
+  </si>
+  <si>
+    <t>外键</t>
   </si>
 </sst>
 </file>
@@ -45,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -104,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,20 +457,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="7" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -475,32 +485,50 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
